--- a/Day-04.04/Функции для работы со строками.xlsx
+++ b/Day-04.04/Функции для работы со строками.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\083_\Day-04.04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36F4D04-0370-49C1-8BD5-61A4A894D518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE10516D-02CC-43E3-990D-AF683C47DB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="914" firstSheet="1" activeTab="10" xr2:uid="{986EFDD9-458B-4E53-B61D-F99A97C749EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="914" firstSheet="1" activeTab="7" xr2:uid="{986EFDD9-458B-4E53-B61D-F99A97C749EF}"/>
   </bookViews>
   <sheets>
     <sheet name="объединение строк" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="127">
   <si>
     <t>Имя</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>Продавец + продажи со знаком ₽</t>
+  </si>
+  <si>
+    <t>СИМВОЛ(10) - символ переноса строки</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -570,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -593,14 +596,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -610,8 +609,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2399,13 +2400,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>36633</xdr:colOff>
+      <xdr:colOff>432287</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>58617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>366346</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>168519</xdr:rowOff>
     </xdr:to>
@@ -2873,11 +2874,11 @@
       <c r="B4">
         <v>242344</v>
       </c>
-      <c r="C4" s="22" t="str">
-        <f t="shared" ref="C4:D13" si="0">RIGHT("000000000"&amp;B4,10)</f>
+      <c r="C4" s="20" t="str">
+        <f t="shared" ref="C4:C13" si="0">RIGHT("000000000"&amp;B4,10)</f>
         <v>0000242344</v>
       </c>
-      <c r="D4" s="22" t="str">
+      <c r="D4" s="20" t="str">
         <f>LEFT(B4&amp;"000000000",10)</f>
         <v>2423440000</v>
       </c>
@@ -2886,11 +2887,11 @@
       <c r="B5">
         <v>543</v>
       </c>
-      <c r="C5" s="22" t="str">
+      <c r="C5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>0000000543</v>
       </c>
-      <c r="D5" s="22" t="str">
+      <c r="D5" s="20" t="str">
         <f t="shared" ref="D5:D13" si="1">LEFT(B5&amp;"000000000",10)</f>
         <v>5430000000</v>
       </c>
@@ -2899,11 +2900,11 @@
       <c r="B6">
         <v>55</v>
       </c>
-      <c r="C6" s="22" t="str">
+      <c r="C6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>0000000055</v>
       </c>
-      <c r="D6" s="22" t="str">
+      <c r="D6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>5500000000</v>
       </c>
@@ -2912,11 +2913,11 @@
       <c r="B7">
         <v>32342</v>
       </c>
-      <c r="C7" s="22" t="str">
+      <c r="C7" s="20" t="str">
         <f>RIGHT("000000000"&amp;B7,10)</f>
         <v>0000032342</v>
       </c>
-      <c r="D7" s="22" t="str">
+      <c r="D7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>3234200000</v>
       </c>
@@ -2925,11 +2926,11 @@
       <c r="B8">
         <v>23445</v>
       </c>
-      <c r="C8" s="22" t="str">
+      <c r="C8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>0000023445</v>
       </c>
-      <c r="D8" s="22" t="str">
+      <c r="D8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>2344500000</v>
       </c>
@@ -2938,11 +2939,11 @@
       <c r="B9">
         <v>23422</v>
       </c>
-      <c r="C9" s="22" t="str">
+      <c r="C9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>0000023422</v>
       </c>
-      <c r="D9" s="22" t="str">
+      <c r="D9" s="20" t="str">
         <f t="shared" si="1"/>
         <v>2342200000</v>
       </c>
@@ -2951,11 +2952,11 @@
       <c r="B10">
         <v>56</v>
       </c>
-      <c r="C10" s="22" t="str">
+      <c r="C10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>0000000056</v>
       </c>
-      <c r="D10" s="22" t="str">
+      <c r="D10" s="20" t="str">
         <f t="shared" si="1"/>
         <v>5600000000</v>
       </c>
@@ -2964,11 +2965,11 @@
       <c r="B11">
         <v>45333</v>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>0000045333</v>
       </c>
-      <c r="D11" s="22" t="str">
+      <c r="D11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>4533300000</v>
       </c>
@@ -2977,11 +2978,11 @@
       <c r="B12">
         <v>543345</v>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>0000543345</v>
       </c>
-      <c r="D12" s="22" t="str">
+      <c r="D12" s="20" t="str">
         <f t="shared" si="1"/>
         <v>5433450000</v>
       </c>
@@ -2990,11 +2991,11 @@
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>0000000005</v>
       </c>
-      <c r="D13" s="22" t="str">
+      <c r="D13" s="20" t="str">
         <f t="shared" si="1"/>
         <v>5000000000</v>
       </c>
@@ -3008,7 +3009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786C5FDA-E708-4F9D-8BD6-BA6B2CCEAAAF}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3043,18 +3044,18 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <v>845</v>
       </c>
-      <c r="E3" s="24" t="str">
+      <c r="E3" s="6" t="str">
         <f>B3&amp;": "&amp;C3</f>
         <v>Герман: 845</v>
       </c>
-      <c r="F3" s="24" t="str">
-        <f>B3&amp;": "&amp;TEXT(C3,"000 000 ₽")</f>
-        <v>Герман: 000 845 ₽</v>
-      </c>
-      <c r="G3" s="21" t="str">
+      <c r="F3" s="6" t="str">
+        <f>B3&amp;": "&amp;TEXT(C3,"000 000 000 ₽")</f>
+        <v>Герман: 000 000 845 ₽</v>
+      </c>
+      <c r="G3" s="19" t="str">
         <f>B3&amp;": "&amp;DOLLAR(C3,-1)</f>
         <v>Герман: 850 ₽</v>
       </c>
@@ -3063,18 +3064,18 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="21">
         <v>549</v>
       </c>
-      <c r="E4" s="24" t="str">
+      <c r="E4" s="6" t="str">
         <f t="shared" ref="E4:E8" si="0">B4&amp;": "&amp;C4</f>
         <v>Артём: 549</v>
       </c>
-      <c r="F4" s="24" t="str">
-        <f t="shared" ref="F4:F8" si="1">B4&amp;": "&amp;TEXT(C4,"000 000 ₽")</f>
-        <v>Артём: 000 549 ₽</v>
-      </c>
-      <c r="G4" s="21" t="str">
+      <c r="F4" s="6" t="str">
+        <f t="shared" ref="F4:F8" si="1">B4&amp;": "&amp;TEXT(C4,"000 000 000 ₽")</f>
+        <v>Артём: 000 000 549 ₽</v>
+      </c>
+      <c r="G4" s="19" t="str">
         <f t="shared" ref="G4:G8" si="2">B4&amp;": "&amp;DOLLAR(C4,-1)</f>
         <v>Артём: 550 ₽</v>
       </c>
@@ -3083,18 +3084,18 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>23654</v>
       </c>
-      <c r="E5" s="24" t="str">
+      <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Арсений: 23654</v>
       </c>
-      <c r="F5" s="24" t="str">
+      <c r="F5" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Арсений: 023 654 ₽</v>
-      </c>
-      <c r="G5" s="21" t="str">
+        <v>Арсений: 000 023 654 ₽</v>
+      </c>
+      <c r="G5" s="19" t="str">
         <f t="shared" si="2"/>
         <v>Арсений: 23 650 ₽</v>
       </c>
@@ -3103,18 +3104,18 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="21">
         <v>549</v>
       </c>
-      <c r="E6" s="24" t="str">
+      <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Пётр: 549</v>
       </c>
-      <c r="F6" s="24" t="str">
+      <c r="F6" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Пётр: 000 549 ₽</v>
-      </c>
-      <c r="G6" s="21" t="str">
+        <v>Пётр: 000 000 549 ₽</v>
+      </c>
+      <c r="G6" s="19" t="str">
         <f t="shared" si="2"/>
         <v>Пётр: 550 ₽</v>
       </c>
@@ -3123,18 +3124,18 @@
       <c r="B7" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <v>542145</v>
       </c>
-      <c r="E7" s="24" t="str">
+      <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Геннадий: 542145</v>
       </c>
-      <c r="F7" s="24" t="str">
+      <c r="F7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Геннадий: 542 145 ₽</v>
-      </c>
-      <c r="G7" s="21" t="str">
+        <v>Геннадий: 000 542 145 ₽</v>
+      </c>
+      <c r="G7" s="19" t="str">
         <f t="shared" si="2"/>
         <v>Геннадий: 542 150 ₽</v>
       </c>
@@ -3143,18 +3144,18 @@
       <c r="B8" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="21">
         <v>33</v>
       </c>
-      <c r="E8" s="24" t="str">
+      <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Сергей: 33</v>
       </c>
-      <c r="F8" s="24" t="str">
+      <c r="F8" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Сергей: 000 033 ₽</v>
-      </c>
-      <c r="G8" s="21" t="str">
+        <v>Сергей: 000 000 033 ₽</v>
+      </c>
+      <c r="G8" s="19" t="str">
         <f t="shared" si="2"/>
         <v>Сергей: 30 ₽</v>
       </c>
@@ -3170,7 +3171,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3743,24 +3744,24 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="10"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -3997,7 +3998,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="266.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C5">
@@ -4015,8 +4016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EF1784-9AD6-4BF0-BEDF-D3A200CA1FE3}">
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,15 +4045,15 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="str">
-        <f>CHAR(50)</f>
-        <v>2</v>
+        <f>CHAR(45)</f>
+        <v>-</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="str">
+      <c r="B3" t="str">
         <f>C3&amp;" "&amp;CHAR(10)&amp;A3</f>
         <v>845 
 Герман</v>
@@ -4060,13 +4061,13 @@
       <c r="C3">
         <v>845</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="16" t="b">
+      <c r="K3" s="15" t="b">
         <f>I3&lt;J3</f>
         <v>0</v>
       </c>
@@ -4075,7 +4076,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="str">
+      <c r="B4" t="str">
         <f t="shared" ref="B4:B8" si="0">C4&amp;" "&amp;CHAR(10)&amp;A4</f>
         <v>549 
 Артём</v>
@@ -4083,19 +4084,19 @@
       <c r="C4">
         <v>549</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>30</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>31</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="17" t="str">
+      <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>654 
 Арсений</v>
@@ -4108,7 +4109,7 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17" t="str">
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>549 
 Пётр</v>
@@ -4121,7 +4122,7 @@
       <c r="A7" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="17" t="str">
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>542 
 Геннадий</v>
@@ -4134,7 +4135,7 @@
       <c r="A8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="17" t="str">
+      <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>335 
 Сергей</v>
@@ -4143,11 +4144,16 @@
         <v>335</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4161,7 +4167,7 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" t="str">
         <f>PROPER(A13&amp;" / "&amp;B13&amp;", "&amp;C13)</f>
         <v>Ананьев / Герман, Максимович</v>
       </c>
@@ -4180,7 +4186,7 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" t="str">
         <f t="shared" ref="D14:D16" si="1">PROPER(A14&amp;" / "&amp;B14&amp;", "&amp;C14)</f>
         <v>Пономарев / Артём, Дмитриевич</v>
       </c>
@@ -4199,7 +4205,7 @@
       <c r="C15" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="17" t="str">
+      <c r="D15" t="str">
         <f t="shared" si="1"/>
         <v>Воронин / Арсений, Валентинович</v>
       </c>
@@ -4218,7 +4224,7 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="17" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="1"/>
         <v>Пантелеев / Пётр, Дмитриевич</v>
       </c>
@@ -4228,17 +4234,17 @@
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="16" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4269,7 +4275,7 @@
       <c r="C2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4277,11 +4283,11 @@
       <c r="B3" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="20" t="str">
+      <c r="C3" s="18" t="str">
         <f>TRIM( CLEAN(B3) )</f>
         <v>Ярославль (Магазин #1) тест</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4289,7 +4295,7 @@
       <c r="B4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="20" t="str">
+      <c r="C4" s="18" t="str">
         <f t="shared" ref="C4:C9" si="0">TRIM( CLEAN(B4) )</f>
         <v>Ярославль (Магазин #2)</v>
       </c>
@@ -4298,7 +4304,7 @@
       <c r="B5" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="20" t="str">
+      <c r="C5" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Ярославль (Магазин #3)</v>
       </c>
@@ -4307,7 +4313,7 @@
       <c r="B6" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="20" t="str">
+      <c r="C6" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Кострома (Магазин #1)</v>
       </c>
@@ -4316,7 +4322,7 @@
       <c r="B7" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="20" t="str">
+      <c r="C7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Кострома (Магазин #2)</v>
       </c>
@@ -4325,16 +4331,16 @@
       <c r="B8" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Кострома (Магазин #3)</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Ярославль (Магазин #1)</v>
       </c>
@@ -4345,7 +4351,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="C12" t="s">
         <v>117</v>
       </c>
